--- a/dados/eletroking distribuidora.xlsx
+++ b/dados/eletroking distribuidora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=d9b4f473-5c07-4bb4-b39a-2f82f78ad1f1</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc8f5ee3-87c1-46ce-b010-6659003081d0</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,27 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=1fb4a69a-bc1f-471c-a0f3-b56b54bae7ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=49bf0e66-952a-497c-9eef-3b6ea7b705e4</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e6c0880-568b-4968-985a-465007914e76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d34d8e3-cd97-4ca0-bb41-98431111dab8</t>
         </is>
       </c>
     </row>
@@ -546,17 +582,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e6c0880-568b-4968-985a-465007914e76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d34d8e3-cd97-4ca0-bb41-98431111dab8</t>
         </is>
       </c>
     </row>
@@ -571,17 +617,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=0e6c0880-568b-4968-985a-465007914e76</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d34d8e3-cd97-4ca0-bb41-98431111dab8</t>
         </is>
       </c>
     </row>
@@ -596,424 +648,570 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=3eec6151-bb38-4246-9a19-57d2289c7775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=fcc84245-9500-4986-9c2d-ece594cdf20c</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> JFA Fonte Carregador Storm Lite 60A 3000 W Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>424.5</v>
+        <v>499.47</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/jfa-fonte-carregador-storm-lite-60a-3000-w-preto/p/MLB23456525?pdp_filters=seller_id:136285454#searchVariation=MLB23456525&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=3eec6151-bb38-4246-9a19-57d2289c7775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=fcc84245-9500-4986-9c2d-ece594cdf20c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>499.47</v>
+        <v>422.93</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=3eec6151-bb38-4246-9a19-57d2289c7775</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d28b1e08-a773-4bf0-9a60-c8a91166553d</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>422.93</v>
+        <v>634.41</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=aded9a77-f46f-4834-8dc3-08d582cc9ee7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=166afa59-9f2e-4715-8ce8-3ce815099a84</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>634.41</v>
+        <v>694.83</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=a044d9d3-a7c4-42d1-81e9-ba9b3776c09d</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d796aa62-8ce5-4dfc-8771-268831162469</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>694.83</v>
+        <v>845.88</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=caf30da6-cc45-451c-87df-5c43b2138c63</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=d796aa62-8ce5-4dfc-8771-268831162469</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Nova Fonte Automotiva Storm Jfa 60a Bivolt Com Sistema Sci</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>845.88</v>
+        <v>443.08</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=caf30da6-cc45-451c-87df-5c43b2138c63</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=a6800aab-6af6-42d0-8e82-e1d01a19526e</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva Storm Jfa 60a Bivolt Com Sistema Sci</t>
+          <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>443.08</v>
+        <v>64.87</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=0b9632e2-7089-4c3e-88c2-c0b3fcc3154e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=404b190b-681a-4369-a94b-a27bb7742d04</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>64.87</v>
+        <v>74.17</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=f86fb864-3162-4da5-8cba-d554fce28d2b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=808d89f1-15e5-400e-a372-923235cbb261</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.17</v>
+        <v>353.02</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=b79d47fb-7e30-4504-aa9e-cf0c3c56a914</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=c3fb133a-17a2-4df5-9360-84fa9f483601</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
+          <t>Controle Longa Distancia Jfa K1200 Mais Vendido Top</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.02</v>
+        <v>70.18000000000001</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=5e2506ce-e9ef-4ebe-a04c-b949328efc08</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=3ced7f90-b1f7-4d35-a52c-c394bf1fe928</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Mais Vendido Top</t>
+          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>70.18000000000001</v>
+        <v>845.88</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=1481ecd6-c901-491c-9f71-332fb907cf18</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da9909c97-f7aa-43ad-a948-d4075f126b3d</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
+          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>845.88</v>
+        <v>433</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b908cc5-fff1-44fa-a8ec-53470a06065c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da9909c97-f7aa-43ad-a948-d4075f126b3d</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
+          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>433</v>
+        <v>74.17</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1b908cc5-fff1-44fa-a8ec-53470a06065c</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7fd1d54-f1ae-4072-be13-29f934dd90f8</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>74.17</v>
+        <v>402.79</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1275e3ca-c2ae-4e8b-ae91-d74a96a177cd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7fd1d54-f1ae-4072-be13-29f934dd90f8</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>402.79</v>
+        <v>51.61</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1275e3ca-c2ae-4e8b-ae91-d74a96a177cd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D477e02f3-85cf-407e-9447-2f0b8350e3ec</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
+          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51.61</v>
+        <v>433</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66ef458c-82ea-4f19-8f82-543e312ea9e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D477e02f3-85cf-407e-9447-2f0b8350e3ec</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1021,17 +1219,27 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D66ef458c-82ea-4f19-8f82-543e312ea9e7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dada9a3ba-573c-429e-bad0-04705dc7f21e</t>
         </is>
       </c>
     </row>
@@ -1042,128 +1250,170 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>433</v>
+        <v>402.79</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D01d0739d-9876-4c12-9dcc-b9fee12126a7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dada9a3ba-573c-429e-bad0-04705dc7f21e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>402.79</v>
+        <v>51.61</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D01d0739d-9876-4c12-9dcc-b9fee12126a7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
+          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51.61</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94eb6f3d-e040-43d0-9dda-33fae95c2f8a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.90000000000001</v>
+        <v>433</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94eb6f3d-e040-43d0-9dda-33fae95c2f8a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>433</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94eb6f3d-e040-43d0-9dda-33fae95c2f8a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1171,242 +1421,291 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D94eb6f3d-e040-43d0-9dda-33fae95c2f8a</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d2c4ea7-cc56-4953-96af-827bd1b1b278</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>674.6799999999999</v>
+        <v>443.08</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6d5b0a16-3ce6-472b-a8f9-5f9616d02bac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d322eae-2ad5-4441-b7b5-753389ecff6d</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>443.08</v>
+        <v>51.61</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1c4d0d0-2f13-4451-b3b1-1fc6d86482c4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d322eae-2ad5-4441-b7b5-753389ecff6d</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51.61</v>
+        <v>58.54</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De1c4d0d0-2f13-4451-b3b1-1fc6d86482c4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd800ff8b-ae86-4b4e-90d6-3fc66a0f267a</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>58.54</v>
+        <v>93.77</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6190201c-c59d-429c-a1c6-78b166bd6844</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1661032689-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dac6e4440-2933-498c-be49-bf863eb9f9ec</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>93.77</v>
+        <v>74.17</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1661032689-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D261781ba-d300-4c1b-8be7-b4d9e61fd6f7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b80de1d-4c7b-43af-805a-053c17372e1a</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>74.17</v>
+        <v>674.6799999999999</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D54146af8-ce3b-4f27-b984-70f67651d813</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642207835-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21a959a-d10d-47b2-90cd-c4388c9ec4ac</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+          <t>Fonte Nova Da Jfa Com 120 Amperes E Sistema Sci Bivot</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.6799999999999</v>
+        <v>634.41</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 120A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642207835-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5959a8a-83b6-4636-845f-c4b1390d5146</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642310339-fonte-nova-da-jfa-com-120-amperes-e-sistema-sci-bivot-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21a959a-d10d-47b2-90cd-c4388c9ec4ac</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Nova Da Jfa Com 120 Amperes E Sistema Sci Bivot</t>
+          <t xml:space="preserve">Nova Fonte Bivolt Com Sistema Sci Da Jfa Storm 60 Amperes </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>634.41</v>
+        <v>443.08</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642310339-fonte-nova-da-jfa-com-120-amperes-e-sistema-sci-bivot-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5959a8a-83b6-4636-845f-c4b1390d5146</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nova Fonte Bivolt Com Sistema Sci Da Jfa Storm 60 Amperes </t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>443.08</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641891705-nova-fonte-bivolt-com-sistema-sci-da-jfa-storm-60-amperes-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De5959a8a-83b6-4636-845f-c4b1390d5146</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641891705-nova-fonte-bivolt-com-sistema-sci-da-jfa-storm-60-amperes-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21a959a-d10d-47b2-90cd-c4388c9ec4ac</t>
         </is>
       </c>
     </row>

--- a/dados/eletroking distribuidora.xlsx
+++ b/dados/eletroking distribuidora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>74.17</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=cc8f5ee3-87c1-46ce-b010-6659003081d0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=319d137e-b915-4765-9699-cfed0fbacd01</t>
         </is>
       </c>
     </row>
@@ -507,14 +507,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>805.6</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -532,7 +532,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=49bf0e66-952a-497c-9eef-3b6ea7b705e4</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=98e883de-eadd-4ac6-9782-753753953370</t>
         </is>
       </c>
     </row>
@@ -542,14 +542,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>443.08</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -557,7 +557,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -567,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d34d8e3-cd97-4ca0-bb41-98431111dab8</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=98e883de-eadd-4ac6-9782-753753953370</t>
         </is>
       </c>
     </row>
@@ -577,14 +577,14 @@
           <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>634.41</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -602,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d34d8e3-cd97-4ca0-bb41-98431111dab8</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=2804998f-f7da-4bf6-b85b-ea5040561931</t>
         </is>
       </c>
     </row>
@@ -612,13 +612,13 @@
           <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>50.76</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=3d34d8e3-cd97-4ca0-bb41-98431111dab8</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=2804998f-f7da-4bf6-b85b-ea5040561931</t>
         </is>
       </c>
     </row>
@@ -643,14 +643,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>624.34</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -668,7 +668,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=fcc84245-9500-4986-9c2d-ece594cdf20c</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=deb2167d-af24-4150-85f5-5ea8fa5b0e8b</t>
         </is>
       </c>
     </row>
@@ -678,14 +678,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>499.47</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -703,7 +703,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=fcc84245-9500-4986-9c2d-ece594cdf20c</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=deb2167d-af24-4150-85f5-5ea8fa5b0e8b</t>
         </is>
       </c>
     </row>
@@ -713,14 +713,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>422.93</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -738,7 +738,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d28b1e08-a773-4bf0-9a60-c8a91166553d</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=8581de6b-754c-4073-886c-efc409387814</t>
         </is>
       </c>
     </row>
@@ -748,14 +748,14 @@
           <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>634.41</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -773,7 +773,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=166afa59-9f2e-4715-8ce8-3ce815099a84</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=16c907eb-74c4-4e4d-9c3a-4184631ad915</t>
         </is>
       </c>
     </row>
@@ -783,14 +783,14 @@
           <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>694.83</v>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -808,7 +808,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=d796aa62-8ce5-4dfc-8771-268831162469</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=92fd4379-fff4-411d-8786-692057210e88</t>
         </is>
       </c>
     </row>
@@ -818,14 +818,14 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>845.88</v>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -843,7 +843,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=24&amp;search_layout=grid&amp;type=product&amp;tracking_id=d796aa62-8ce5-4dfc-8771-268831162469</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=92fd4379-fff4-411d-8786-692057210e88</t>
         </is>
       </c>
     </row>
@@ -853,14 +853,14 @@
           <t>Nova Fonte Automotiva Storm Jfa 60a Bivolt Com Sistema Sci</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>443.08</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -878,7 +878,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=a6800aab-6af6-42d0-8e82-e1d01a19526e</t>
+          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=41965220-63d1-4964-9a45-4e165883f85d</t>
         </is>
       </c>
     </row>
@@ -888,13 +888,13 @@
           <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>64.87</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -909,7 +909,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=404b190b-681a-4369-a94b-a27bb7742d04</t>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=156164ea-7e12-4ff1-8457-aad155c183bb</t>
         </is>
       </c>
     </row>
@@ -919,13 +919,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>74.17</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=808d89f1-15e5-400e-a372-923235cbb261</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7d5be2e-58cb-427b-820c-56a7d13d345b</t>
         </is>
       </c>
     </row>
@@ -950,13 +950,13 @@
           <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>353.02</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=c3fb133a-17a2-4df5-9360-84fa9f483601</t>
+          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=0879f143-d124-4095-80fd-9fccd3f4e800</t>
         </is>
       </c>
     </row>
@@ -981,13 +981,13 @@
           <t>Controle Longa Distancia Jfa K1200 Mais Vendido Top</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>70.18000000000001</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -1002,27 +1002,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=3ced7f90-b1f7-4d35-a52c-c394bf1fe928</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=89775f65-454c-4783-a65d-483aabee0948</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>845.88</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>402.79</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da9909c97-f7aa-43ad-a948-d4075f126b3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D617b6042-347f-4786-b01b-a06d60c881b5</t>
         </is>
       </c>
     </row>
@@ -1047,14 +1047,14 @@
           <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>433</v>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1072,25 +1072,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da9909c97-f7aa-43ad-a948-d4075f126b3d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D617b6042-347f-4786-b01b-a06d60c881b5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>433</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1098,34 +1102,30 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7fd1d54-f1ae-4072-be13-29f934dd90f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1138,7 +1138,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db7fd1d54-f1ae-4072-be13-29f934dd90f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
         </is>
       </c>
     </row>
@@ -1148,13 +1148,13 @@
           <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>51.61</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -1169,27 +1169,27 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D477e02f3-85cf-407e-9447-2f0b8350e3ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>433</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>845.88</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D477e02f3-85cf-407e-9447-2f0b8350e3ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
         </is>
       </c>
     </row>
@@ -1214,14 +1214,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>433</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D24" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dada9a3ba-573c-429e-bad0-04705dc7f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D344b60df-58df-43cd-aa2b-9160b79ed8c7</t>
         </is>
       </c>
     </row>
@@ -1249,14 +1249,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>402.79</v>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D25" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dada9a3ba-573c-429e-bad0-04705dc7f21e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D344b60df-58df-43cd-aa2b-9160b79ed8c7</t>
         </is>
       </c>
     </row>
@@ -1284,13 +1284,13 @@
           <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>51.61</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1305,25 +1305,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357e3fe3-5b05-4c59-8e40-d9a3a816ef48</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>433</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1336,29 +1340,25 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357e3fe3-5b05-4c59-8e40-d9a3a816ef48</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>433</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357e3fe3-5b05-4c59-8e40-d9a3a816ef48</t>
         </is>
       </c>
     </row>
@@ -1381,14 +1381,14 @@
           <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D066713e6-607d-47bf-abf6-f34ebfb84cac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e6deafa-83b9-4996-8a24-6a6bd3e2f9c0</t>
         </is>
       </c>
     </row>
@@ -1416,14 +1416,14 @@
           <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1441,29 +1441,25 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3d2c4ea7-cc56-4953-96af-827bd1b1b278</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D922cc095-d62c-452f-adba-4ae25e1840bc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>443.08</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1476,25 +1472,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d322eae-2ad5-4441-b7b5-753389ecff6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea60e192-cee6-4bdd-8f7a-fd11caabb669</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>443.08</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1507,23 +1507,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7d322eae-2ad5-4441-b7b5-753389ecff6d</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea60e192-cee6-4bdd-8f7a-fd11caabb669</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>58.54</v>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C33" t="n">
+        <v>51.61</v>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1538,23 +1538,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd800ff8b-ae86-4b4e-90d6-3fc66a0f267a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c58e5a3-7dbe-4b4f-ad53-8cfa0d02c106</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>93.77</v>
-      </c>
-      <c r="C34" t="inlineStr">
+          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C34" t="n">
+        <v>74.17</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1569,23 +1569,23 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1661032689-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dac6e4440-2933-498c-be49-bf863eb9f9ec</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffeebc4c-94e4-40f2-8d5d-794a95d4ef3a</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="C35" t="inlineStr">
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C35" t="n">
+        <v>93.77</v>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -1600,112 +1600,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D8b80de1d-4c7b-43af-805a-053c17372e1a</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>674.6799999999999</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642207835-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21a959a-d10d-47b2-90cd-c4388c9ec4ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Fonte Nova Da Jfa Com 120 Amperes E Sistema Sci Bivot</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>634.41</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 120A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642310339-fonte-nova-da-jfa-com-120-amperes-e-sistema-sci-bivot-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21a959a-d10d-47b2-90cd-c4388c9ec4ac</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nova Fonte Bivolt Com Sistema Sci Da Jfa Storm 60 Amperes </t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>443.08</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641891705-nova-fonte-bivolt-com-sistema-sci-da-jfa-storm-60-amperes-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3De21a959a-d10d-47b2-90cd-c4388c9ec4ac</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1661032689-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffeebc4c-94e4-40f2-8d5d-794a95d4ef3a</t>
         </is>
       </c>
     </row>

--- a/dados/eletroking distribuidora.xlsx
+++ b/dados/eletroking distribuidora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,18 +473,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>805.6</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>NA</t>
@@ -497,27 +501,27 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=319d137e-b915-4765-9699-cfed0fbacd01</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=de9eb2d3-225b-467d-bcce-1eaed8be7d0b</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>805.6</v>
+        <v>74.17</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=98e883de-eadd-4ac6-9782-753753953370</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=de9eb2d3-225b-467d-bcce-1eaed8be7d0b</t>
         </is>
       </c>
     </row>
@@ -557,7 +561,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -567,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=98e883de-eadd-4ac6-9782-753753953370</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=bd4b00ce-248a-46c0-a7bb-eb53c923ad5d</t>
         </is>
       </c>
     </row>
@@ -602,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=2804998f-f7da-4bf6-b85b-ea5040561931</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=bd4b00ce-248a-46c0-a7bb-eb53c923ad5d</t>
         </is>
       </c>
     </row>
@@ -633,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=2804998f-f7da-4bf6-b85b-ea5040561931</t>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=bd4b00ce-248a-46c0-a7bb-eb53c923ad5d</t>
         </is>
       </c>
     </row>
@@ -668,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=deb2167d-af24-4150-85f5-5ea8fa5b0e8b</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=650050a4-816e-4bd9-a840-e4c0382ef2a2</t>
         </is>
       </c>
     </row>
@@ -703,7 +707,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=deb2167d-af24-4150-85f5-5ea8fa5b0e8b</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=650050a4-816e-4bd9-a840-e4c0382ef2a2</t>
         </is>
       </c>
     </row>
@@ -738,7 +742,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=8581de6b-754c-4073-886c-efc409387814</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=4f4e1879-dd74-4c45-81ef-b4dcd02b014a</t>
         </is>
       </c>
     </row>
@@ -773,7 +777,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=16c907eb-74c4-4e4d-9c3a-4184631ad915</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=112e6b6d-9074-4180-ac30-00d5517b2ab3</t>
         </is>
       </c>
     </row>
@@ -808,7 +812,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=92fd4379-fff4-411d-8786-692057210e88</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=fe054cf4-1fa3-420a-a976-f00161b4d8f4</t>
         </is>
       </c>
     </row>
@@ -843,7 +847,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=92fd4379-fff4-411d-8786-692057210e88</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=3f138a03-42be-4e5f-9d92-d907986f8b8f</t>
         </is>
       </c>
     </row>
@@ -878,7 +882,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=41965220-63d1-4964-9a45-4e165883f85d</t>
+          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=d59908f7-768a-412e-9485-3c13f2bc7564</t>
         </is>
       </c>
     </row>
@@ -890,13 +894,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>64.87</v>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>NA</t>
@@ -909,14 +917,14 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=43&amp;search_layout=grid&amp;type=product&amp;tracking_id=156164ea-7e12-4ff1-8457-aad155c183bb</t>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=2f7b3c1f-b0fc-4c8a-958f-72770e808fa8</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -925,7 +933,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>74.17</v>
+        <v>353.02</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -940,25 +948,29 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=a7d5be2e-58cb-427b-820c-56a7d13d345b</t>
+          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=c047b5a9-1011-4e7b-846a-4b28e74a33ae</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>353.02</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>74.17</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -971,7 +983,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=0879f143-d124-4095-80fd-9fccd3f4e800</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=c33f9d58-6ed0-4fb4-abe2-4d736bcc2fcb</t>
         </is>
       </c>
     </row>
@@ -983,13 +995,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>70.18000000000001</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1002,7 +1018,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=89775f65-454c-4783-a65d-483aabee0948</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=c5f6f367-4bb2-4cf3-a1be-93d644cecaf8</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1053,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D617b6042-347f-4786-b01b-a06d60c881b5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da477b722-2763-4bef-8be6-d32af2d015ae</t>
         </is>
       </c>
     </row>
@@ -1072,27 +1088,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D617b6042-347f-4786-b01b-a06d60c881b5</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da477b722-2763-4bef-8be6-d32af2d015ae</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>433</v>
+        <v>51.61</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1102,30 +1118,34 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dde81436d-d54b-4ea1-86e6-cf6d74dd10eb</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>433</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1133,30 +1153,34 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dde81436d-d54b-4ea1-86e6-cf6d74dd10eb</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
+          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>433</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1164,28 +1188,28 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D33a9f435-47c4-4f6e-8da9-0e153d50c7e8</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
+          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>845.88</v>
+        <v>74.17</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1199,32 +1223,32 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7f0314e4-577c-413c-9832-fef8f727a1b9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D33a9f435-47c4-4f6e-8da9-0e153d50c7e8</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>433</v>
+        <v>51.61</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1234,32 +1258,32 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D344b60df-58df-43cd-aa2b-9160b79ed8c7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D434c7d86-a714-4e82-9c1b-c9229490b1fe</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>402.79</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1269,30 +1293,34 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D344b60df-58df-43cd-aa2b-9160b79ed8c7</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b07edad-fd21-480f-8c99-f632d4fd062e</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>433</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1300,28 +1328,28 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357e3fe3-5b05-4c59-8e40-d9a3a816ef48</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b07edad-fd21-480f-8c99-f632d4fd062e</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>433</v>
+        <v>58.54</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1335,30 +1363,34 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357e3fe3-5b05-4c59-8e40-d9a3a816ef48</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D183879e6-bb8c-480b-95a3-4e718de59187</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1371,23 +1403,23 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D357e3fe3-5b05-4c59-8e40-d9a3a816ef48</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D183879e6-bb8c-480b-95a3-4e718de59187</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>674.6799999999999</v>
+        <v>402.79</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1401,32 +1433,32 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e6deafa-83b9-4996-8a24-6a6bd3e2f9c0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D183879e6-bb8c-480b-95a3-4e718de59187</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>674.6799999999999</v>
+        <v>443.08</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1436,30 +1468,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D922cc095-d62c-452f-adba-4ae25e1840bc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99b3a5f8-1a46-4136-beb7-e7225e384e7e</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
+          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>58.54</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>845.88</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1467,32 +1503,32 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea60e192-cee6-4bdd-8f7a-fd11caabb669</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99b3a5f8-1a46-4136-beb7-e7225e384e7e</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>443.08</v>
+        <v>51.61</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1507,25 +1543,29 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea60e192-cee6-4bdd-8f7a-fd11caabb669</t>
+          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea62c8ee-0494-4153-955b-469ae1eda9ac</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>51.61</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1533,19 +1573,19 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1c58e5a3-7dbe-4b4f-ad53-8cfa0d02c106</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea62c8ee-0494-4153-955b-469ae1eda9ac</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
+          <t>Controle Longa Distancia Automotiva Com Central Jfa 1200m</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1554,7 +1594,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>74.17</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
@@ -1564,30 +1604,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffeebc4c-94e4-40f2-8d5d-794a95d4ef3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3025831921-controle-longa-distancia-automotiva-com-central-jfa-1200m-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70a1f404-a261-4134-bcde-52b723c27eb2</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+          <t>Fonte De Energia Carro Jfa Bob Storm 200a Bivolt Para Carros</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>93.77</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>694.83</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1595,12 +1639,82 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1661032689-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dffeebc4c-94e4-40f2-8d5d-794a95d4ef3a</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3348637493-fonte-de-energia-carro-jfa-bob-storm-200a-bivolt-para-carros-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e1e59e9-36a6-4cce-9708-6d8570d66afe</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>74.17</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e1e59e9-36a6-4cce-9708-6d8570d66afe</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>674.6799999999999</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642207835-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9a28b9c-b1ea-4930-ab13-374435ac7b42</t>
         </is>
       </c>
     </row>

--- a/dados/eletroking distribuidora.xlsx
+++ b/dados/eletroking distribuidora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1248 +483,1825 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>805.6</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=de9eb2d3-225b-467d-bcce-1eaed8be7d0b</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=218c6807-0be4-4355-91f0-c32d7572df17</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="E3" t="n">
         <v>74.17</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=de9eb2d3-225b-467d-bcce-1eaed8be7d0b</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=218c6807-0be4-4355-91f0-c32d7572df17</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>443.08</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>634.41</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=bd4b00ce-248a-46c0-a7bb-eb53c923ad5d</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=31&amp;search_layout=grid&amp;type=product&amp;tracking_id=d6b89acb-196a-45a5-a4ce-054ce7b3dd7c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>634.41</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#searchVariation=MLB21392652&amp;position=47&amp;search_layout=grid&amp;type=product&amp;tracking_id=bd4b00ce-248a-46c0-a7bb-eb53c923ad5d</t>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=39&amp;search_layout=grid&amp;type=product&amp;tracking_id=d6b89acb-196a-45a5-a4ce-054ce7b3dd7c</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>50.76</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>499.47</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#searchVariation=MLB25707531&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=bd4b00ce-248a-46c0-a7bb-eb53c923ad5d</t>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ea5c568-dacf-4429-9bab-2db21fa67fa1</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="E7" t="n">
         <v>624.34</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=650050a4-816e-4bd9-a840-e4c0382ef2a2</t>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#searchVariation=MLB24834408&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ea5c568-dacf-4429-9bab-2db21fa67fa1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>499.47</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>422.93</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#searchVariation=MLB22144397&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=650050a4-816e-4bd9-a840-e4c0382ef2a2</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=6ea5c568-dacf-4429-9bab-2db21fa67fa1</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>422.93</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>443.08</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=4f4e1879-dd74-4c45-81ef-b4dcd02b014a</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#searchVariation=MLB21320712&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=be5b980f-8e20-4e9c-b99d-9a3c2b1be7cd</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>634.41</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Nova Fonte Automotiva Storm Jfa 60a Bivolt Com Sistema Sci</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>443.08</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=112e6b6d-9074-4180-ac30-00d5517b2ab3</t>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=be5b980f-8e20-4e9c-b99d-9a3c2b1be7cd</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>694.83</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>634.41</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=49&amp;search_layout=grid&amp;type=product&amp;tracking_id=fe054cf4-1fa3-420a-a976-f00161b4d8f4</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#searchVariation=MLB27870129&amp;position=38&amp;search_layout=grid&amp;type=product&amp;tracking_id=708345bf-e2b6-4c4b-9205-a8c1d1f33db8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>845.88</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>694.83</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=3f138a03-42be-4e5f-9d92-d907986f8b8f</t>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#searchVariation=MLB26854417&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=6fa08ded-6401-4349-9608-b1c7e806b4d8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nova Fonte Automotiva Storm Jfa 60a Bivolt Com Sistema Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>443.08</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>845.88</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#searchVariation=MLB27787603&amp;position=28&amp;search_layout=grid&amp;type=product&amp;tracking_id=d59908f7-768a-412e-9485-3c13f2bc7564</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#searchVariation=MLB26091477&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=6fa08ded-6401-4349-9608-b1c7e806b4d8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="E14" t="n">
         <v>64.87</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=2f7b3c1f-b0fc-4c8a-958f-72770e808fa8</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#searchVariation=MLB28359785&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=48a44d9f-802f-4729-a766-74de042cdf6c</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>353.02</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>74.17</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=c047b5a9-1011-4e7b-846a-4b28e74a33ae</t>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=40&amp;search_layout=grid&amp;type=product&amp;tracking_id=b9dccbb9-64f1-483e-b93a-5ff5a6ebf3ec</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>74.17</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Mais Vendido Top</t>
+        </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>70.18000000000001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:136285454#searchVariation=MLB27687422&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=c33f9d58-6ed0-4fb4-abe2-4d736bcc2fcb</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=102b22fd-5b18-420c-bdd9-589c19524713</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K1200 Mais Vendido Top</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>70.18000000000001</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
+        </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>353.02</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k1200-mais-vendido-top/p/MLB27984528?pdp_filters=seller_id:136285454#searchVariation=MLB27984528&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=c5f6f367-4bb2-4cf3-a1be-93d644cecaf8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#searchVariation=MLB35135244&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=d8f8a599-82c5-49b1-a9d5-c07b7093f263</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>402.79</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+        </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>99.90000000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da477b722-2763-4bef-8be6-d32af2d015ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D88bc5856-6e1e-4c9a-9493-9585ea4c6b93</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>433</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da477b722-2763-4bef-8be6-d32af2d015ae</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637840087-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc87cf8b5-0908-417b-986b-ec5abc9e8195</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="E20" t="n">
         <v>51.61</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dde81436d-d54b-4ea1-86e6-cf6d74dd10eb</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc87cf8b5-0908-417b-986b-ec5abc9e8195</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="E21" t="n">
         <v>433</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dde81436d-d54b-4ea1-86e6-cf6d74dd10eb</t>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D106afc7e-6d55-44e9-aeea-44a2a4dea09e</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C22" t="n">
-        <v>433</v>
-      </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="n">
+        <v>402.79</v>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D33a9f435-47c4-4f6e-8da9-0e153d50c7e8</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D106afc7e-6d55-44e9-aeea-44a2a4dea09e</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>74.17</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>51.61</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D33a9f435-47c4-4f6e-8da9-0e153d50c7e8</t>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06802e18-cdc3-4b85-9be3-df29596824bb</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>51.61</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa 600 Branco Com Teclas Cinzas</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D434c7d86-a714-4e82-9c1b-c9229490b1fe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858249716-controle-longa-distncia-jfa-600-branco-com-teclas-cinzas-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D06802e18-cdc3-4b85-9be3-df29596824bb</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>99.90000000000001</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>539.75</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b07edad-fd21-480f-8c99-f632d4fd062e</t>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3247634330-fonte-carregador-jfa-120a-bob-storm-slim-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd255afe9-5c44-404b-8fff-b9a6b0d7f450</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>433</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+        </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>74.17</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6b07edad-fd21-480f-8c99-f632d4fd062e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd255afe9-5c44-404b-8fff-b9a6b0d7f450</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C27" t="n">
-        <v>58.54</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+      <c r="E27" t="n">
+        <v>51.61</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D183879e6-bb8c-480b-95a3-4e718de59187</t>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd255afe9-5c44-404b-8fff-b9a6b0d7f450</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>674.6799999999999</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Bivolt 40 Amperes</t>
+        </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>433</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D183879e6-bb8c-480b-95a3-4e718de59187</t>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637778495-fonte-carregador-automotivo-jfa-bivolt-40-amperes-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd255afe9-5c44-404b-8fff-b9a6b0d7f450</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 40 A Jfa Com Sistema Sci Volt/amp</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C29" t="n">
-        <v>402.79</v>
-      </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="n">
+        <v>433</v>
+      </c>
+      <c r="F29" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D183879e6-bb8c-480b-95a3-4e718de59187</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637846497-fonte-carregador-40-a-jfa-com-sistema-sci-voltamp-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd255afe9-5c44-404b-8fff-b9a6b0d7f450</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>443.08</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
+        </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>58.54</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99b3a5f8-1a46-4136-beb7-e7225e384e7e</t>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D7de8ec35-30df-4f14-81a2-66e2c7315060</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>845.88</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+        </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>443.08</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99b3a5f8-1a46-4136-beb7-e7225e384e7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D02009d05-b999-4bde-9bc7-17ece8d3a373</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Jfa K600 - Controle Longa Distancia Completo Diversas Cores</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>51.61</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>433</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-866342127-jfa-k600-controle-longa-distancia-completo-diversas-cores-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea62c8ee-0494-4153-955b-469ae1eda9ac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638154926-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D02009d05-b999-4bde-9bc7-17ece8d3a373</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>674.6799999999999</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>74.17</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dea62c8ee-0494-4153-955b-469ae1eda9ac</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001297244-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D961e2846-f6b2-4a30-9856-ee07169b78ba</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Automotiva Com Central Jfa 1200m</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>443.08</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3025831921-controle-longa-distancia-automotiva-com-central-jfa-1200m-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D70a1f404-a261-4134-bcde-52b723c27eb2</t>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3883515622-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D458c57d5-274a-43f2-a53e-f47796e0fce3</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte De Energia Carro Jfa Bob Storm 200a Bivolt Para Carros</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>694.83</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>674.6799999999999</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3348637493-fonte-de-energia-carro-jfa-bob-storm-200a-bivolt-para-carros-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e1e59e9-36a6-4cce-9708-6d8570d66afe</t>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D350401af-7e1b-4f1b-8029-d14f5c9bc050</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Controle De Longa Distância Jfa Acqua Preto A Prova D'água</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>74.17</v>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Controle Jfa Longa Distancia A Prova D'agua Completo Preto</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3025164015-controle-de-longa-distncia-jfa-acqua-preto-a-prova-dagua-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4e1e59e9-36a6-4cce-9708-6d8570d66afe</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3025803425-controle-jfa-longa-distancia-a-prova-dagua-completo-preto-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D350401af-7e1b-4f1b-8029-d14f5c9bc050</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>575.88</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3339440085-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D20%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D350401af-7e1b-4f1b-8029-d14f5c9bc050</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>845.88</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad59c19a-20d2-471e-ab07-a113cb78ace1</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>FONTE 120A STORM</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="E39" t="n">
         <v>674.6799999999999</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2642207835-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dc9a28b9c-b1ea-4930-ab13-374435ac7b42</t>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dad59c19a-20d2-471e-ab07-a113cb78ace1</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1661039503-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dab785f0d-8cd3-4da1-af88-a99914a30017</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 60 Amperes Da Jfa Digital Bivolt Lançamento</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>443.08</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641890988-fonte-carregador-60-amperes-da-jfa-digital-bivolt-lancamento-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dca5334e1-a66d-4325-b89f-7b71bc765d33</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Preto / Laranja K600</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>56.31</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239391-controle-longa-distncia-jfa-preto-laranja-k600-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4895d796-db48-46e4-bded-cc868c679f32</t>
         </is>
       </c>
     </row>

--- a/dados/eletroking distribuidora.xlsx
+++ b/dados/eletroking distribuidora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Som Automotivo Modulo Fonte Carregador Jfa 200 Amperes Sci</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>805.6</v>
+        <v>871.25</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -511,24 +511,24 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#searchVariation=MLB21348561&amp;position=19&amp;search_layout=stack&amp;type=product&amp;tracking_id=2e28d475-1e83-4346-b160-4e34b51399f1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2645992805-som-automotivo-modulo-fonte-carregador-jfa-200-amperes-sci-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,35 +538,4214 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>829.75</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:136285454#wid=MLB3254394595&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:136285454#wid=MLB4023781084&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Jfa K600 - Controle Longa Distancia 600 M + Barato Brasil!!!</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-685142873-jfa-k600-controle-longa-distancia-600-m-barato-brasil-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>514.45</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:136285454#wid=MLB4562795710&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Acqua Prova D'agua 1200 Metros</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>74.17</v>
-      </c>
-      <c r="F3" t="inlineStr">
+      <c r="E7" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001334378-controle-longa-distncia-jfa-acqua-prova-dagua-1200-metros-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 200a Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-200a-bivolt-cor-preto/p/MLB26854417?pdp_filters=seller_id:136285454#wid=MLB3443173073&amp;sid=search&amp;searchVariation=MLB26854417&amp;position=18&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>738.22</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:136285454#wid=MLB4038367936&amp;sid=search&amp;searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>445.99</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637773921-fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>classico</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:136285454#searchVariation=MLB27685629&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=2e28d475-1e83-4346-b160-4e34b51399f1</t>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:136285454#wid=MLB3345248219&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca/p/MLB27870129?pdp_filters=seller_id:136285454#wid=MLB3496107409&amp;sid=search&amp;searchVariation=MLB27870129&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>643.0599999999999</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:136285454#wid=MLB3452287209&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:136285454#wid=MLB4053892124&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641893143-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm Lite 120a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>590.5599999999999</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3696356230-fonte-automotiva-jfa-storm-lite-120a-bivolt-carregador-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm Modelo Com 70 Amperes Para Carro</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-jfa-storm-modelo-com-70-amperes-para-carro/p/MLB27622275?pdp_filters=seller_id:136285454#wid=MLB4186510246&amp;sid=search&amp;searchVariation=MLB27622275&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200 Amperes Sci Mais Forte Do Brasil</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2645950151-fonte-carregador-jfa-200-amperes-sci-mais-forte-do-brasil-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:136285454#wid=MLB3402617131&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001455968-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Conversor Fio Para Rca Remoto Slim 12v Jfa Automotivo Cd Dvd</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>50.76</v>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/conversor-fio-para-rca-remoto-slim-12v-jfa-automotivo-cd-dvd/p/MLB25707531?pdp_filters=seller_id:136285454#wid=MLB3435396043&amp;sid=search&amp;searchVariation=MLB25707531&amp;position=17&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>353.01</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid/p/MLB35135244?pdp_filters=seller_id:136285454#wid=MLB3642513243&amp;sid=search&amp;searchVariation=MLB35135244&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nova Fonte Bivolt Com Sistema Sci Da Jfa Storm 60 Amperes </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641891705-nova-fonte-bivolt-com-sistema-sci-da-jfa-storm-60-amperes-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:136285454#wid=MLB3618031705&amp;sid=search&amp;searchVariation=MLB21392652&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nova Fonte Automotiva Storm Jfa 60a Bivolt Com Sistema Sci</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/nova-fonte-automotiva-storm-jfa-60a-bivolt-com-sistema-sci/p/MLB27787603?pdp_filters=seller_id:136285454#wid=MLB3484661973&amp;sid=search&amp;searchVariation=MLB27787603&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642207835-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Para Som Automotivo Top Jfa K1200</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-para-som-automotivo-top-jfa-k1200/p/MLB28314167?pdp_filters=seller_id:136285454#wid=MLB5014238252&amp;sid=search&amp;searchVariation=MLB28314167&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>552.35</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:136285454#wid=MLB5045920502&amp;sid=search&amp;searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=bb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 90a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>435.62</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3402583063-fonte-carregador-jfa-90a-bob-storm-slim-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Controle Reposição Longa Distancia Avulso Jfa K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-reposico-longa-distancia-avulso-jfa-k1200-preto/p/MLB28359785?pdp_filters=seller_id:136285454#wid=MLB3590224965&amp;sid=search&amp;searchVariation=MLB28359785&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa Storm 120 Amperes Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642253748-fonte-carregador-automotivo-jfa-storm-120-amperes-sci-bivolt-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>93.77</v>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1661032689-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Para Som Automotivo 70 Amperes Jfa Storm Carregador</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2617229339-fonte-para-som-automotivo-70-amperes-jfa-storm-carregador-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Storm 120a Da Jfa Medidor Cca E Sistema Sci Automotivo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642474499-fonte-storm-120a-da-jfa-medidor-cca-e-sistema-sci-automotivo-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Com Laranja</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239243-controle-longa-distancia-jfa-k600-preto-com-laranja-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Automotiva Pwm Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2617220974-fonte-carregador-jfa-120a-automotiva-pwm-sci-bivolt-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Fonte Nova Da Jfa Com 120 Amperes E Sistema Sci Bivot</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642322475-fonte-nova-da-jfa-com-120-amperes-e-sistema-sci-bivot-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Para Carro Da Jfa 70a Lançamento Para Som Potente</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2644394480-fonte-para-carro-da-jfa-70a-lancamento-para-som-potente-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 60a Automático Sci Bivolt</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2617189609-fonte-automotiva-carregador-jfa-60a-automatico-sci-bivolt-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 60 Amperes Da Jfa Digital Bivolt Lançamento</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641897751-fonte-carregador-60-amperes-da-jfa-digital-bivolt-lancamento-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotivo Digital Bivolt 60a Jfa Nova Lançamento</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641755514-fonte-som-automotivo-digital-bivolt-60a-jfa-nova-lancamento-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Fonte Nova Da Jfa Com 120 Amperes E Sistema Sci Bivot</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642310339-fonte-nova-da-jfa-com-120-amperes-e-sistema-sci-bivot-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>414.87</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638171985-fonte-carregador-jfa-storm-40a-bivolt-12v-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Fonte De Energia Carro Jfa Bob Storm 200a Bivolt Para Carros</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>715.66</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3348637493-fonte-de-energia-carro-jfa-bob-storm-200a-bivolt-para-carros-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Preto Cinza Completo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>58.54</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858248710-controle-longa-distancia-jfa-k600-preto-cinza-completo-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>555.9299999999999</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3247634330-fonte-carregador-jfa-120a-bob-storm-slim-bivolt-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>447.46</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3690438310-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Controle Remoto Longa Distancia Jfa K600 Verde Preto</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858213230-controle-remoto-longa-distancia-jfa-k600-verde-preto-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva 60a Jfa Sistema Inteligente Sci</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641660203-fonte-carregador-automotiva-60a-jfa-sistema-inteligente-sci-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642187989-fonte-automotiva-120a-amperes-jfa-carregador-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Carregador Jfa 60a Sci Bivolt Automático</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641647793-fonte-automotiva-carregador-jfa-60a-sci-bivolt-automatico-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbb744f84-df7f-4e9c-897e-6abb0fbd4109</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Sequenciador Voltimetro Medidor Bateria Digital Jfa Vs5 Hi</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>98.81999999999999</v>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1661039503-sequenciador-voltimetro-medidor-bateria-digital-jfa-vs5-hi-_JM#position%3D3%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Pwm Slim Jfa 200a Com Sistema Inteligente</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>829.76</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2645983780-fonte-automotiva-pwm-slim-jfa-200a-com-sistema-inteligente-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Controle Modo Aprender Jfa Resistente Agua 1200m Distancia</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001450645-controle-modo-aprender-jfa-resistente-agua-1200m-distancia-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Da Jfa 120 A Lançamento Potente</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2644084395-fonte-carregador-de-bateria-da-jfa-120-a-lancamento-potente-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Fonte Storm 120a Da Jfa Medidor Cca E Sistema Sci Automotivo</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642467725-fonte-storm-120a-da-jfa-medidor-cca-e-sistema-sci-automotivo-_JM#position%3D5%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>702.29</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3341660697-fonte-carregador-jfa-200a-lite-storm-slim-bivolt-_JM#position%3D4%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Kit 2 Filtro Anti Ruído Jfa P/ Rca Cd Dvd Eletromagnético</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>126.11</v>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623906130-kit-2-filtro-anti-ruido-jfa-p-rca-cd-dvd-eletromagnetico-_JM#position%3D10%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fonte Carregador De Bateria Jfa 70a Lite Storm Slim Bivolt</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>420.99</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3336170351-fonte-carregador-de-bateria-jfa-70a-lite-storm-slim-bivolt-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Fonte Para Som Automotivo 60a Storm Jfa Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641903553-fonte-para-som-automotivo-60a-storm-jfa-com-medidor-cca-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>10 Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>566.14</v>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2633847622-10-filtro-anti-ruido-jfa-p-rca-cd-dvd-tira-chiado-som-carro-_JM#position%3D14%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 60a Bivolt 12v Sci Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641795563-fonte-carregador-jfa-storm-60a-bivolt-12v-sci-medidor-cca-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Fonte Carregador 60 Amperes Da Jfa Digital Bivolt Lançamento</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641890988-fonte-carregador-60-amperes-da-jfa-digital-bivolt-lancamento-_JM#position%3D13%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Fonte Para Som Automotivo 70 Amperes Jfa Storm Carregador</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2617199017-fonte-para-som-automotivo-70-amperes-jfa-storm-carregador-_JM#position%3D12%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotivo Jfa 120a Sci Bivolt Pwm A Melhor</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>653.4299999999999</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642195965-fonte-carregador-automotivo-jfa-120a-sci-bivolt-pwm-a-melhor-_JM#position%3D11%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Filtro Anti Ruído Jfa Rca Dvd Eletromagnético Stereo - 20 Un</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>1074</v>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2633940106-filtro-anti-ruido-jfa-rca-dvd-eletromagnetico-stereo-20-un-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Fonte Para Som Jfa Lançamento 60 Amperes Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>456.36</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641882429-fonte-para-som-jfa-lancamento-60-amperes-com-medidor-cca-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Fonte Jfa Storm 40 Amperes Cca Sci 2022 Automotiva</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>445.99</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638056965-fonte-jfa-storm-40-amperes-cca-sci-2022-automotiva-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Fonte Jfa 40a Medidor Cca E Sistema Sci Para Som Automotivo</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>414.87</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2638070003-fonte-jfa-40a-medidor-cca-e-sistema-sci-para-som-automotivo-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10 Filtro Anti Ruido Jfa P/ Rca Cd Dvd Tira Chiado Som Carro</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>521.21</v>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2633872942-10-filtro-anti-ruido-jfa-p-rca-cd-dvd-tira-chiado-som-carro-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Controle Longo Alcance P/ Competição Som Jfa Universal K1200</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673084673-controle-longo-alcance-p-competico-som-jfa-universal-k1200-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Lançamento Jfa Controle Remoto Preto 1200 Metros Alcance Top</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673031599-lancamento-jfa-controle-remoto-preto-1200-metros-alcance-top-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa K1200 Preto + Barato Brasil</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2672987685-controle-longa-distncia-jfa-k1200-preto-barato-brasil-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Controle Remoto Original Jfa 1200m Melhor Alcance Lançamento</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673083233-controle-remoto-original-jfa-1200m-melhor-alcance-lancamento-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Controle Avulso Longa Distância Jfa Tx K1200 Preto</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>70.18000000000001</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1763499270-controle-avulso-longa-distncia-jfa-tx-k1200-preto-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Controle Som Carro Resistente A Agua Acqua Jfa K1200 Branco</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001476703-controle-som-carro-resistente-a-agua-acqua-jfa-k1200-branco-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Controle Longo Alcance Potente Competição Automotiva Jfa</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673056282-controle-longo-alcance-potente-competico-automotiva-jfa-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Controle Jfa Longa Distancia P/ Competição Som Automotivo</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673039534-controle-jfa-longa-distancia-p-competico-som-automotivo-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Controle Longo Alcance Universal Original Jfa Som De Carro</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673007417-controle-longo-alcance-universal-original-jfa-som-de-carro-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2618617533-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância Jfa Preto / Laranja K600</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858239391-controle-longa-distncia-jfa-preto-laranja-k600-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Controle Longo Alcance Universal Original Jfa Som De Carro</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673037436-controle-longo-alcance-universal-original-jfa-som-de-carro-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Preto Completo Som Carro</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707804533-controle-longa-distancia-jfa-k1200-preto-completo-som-carro-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa Verde Com Preto K600 M Remoto</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>56.3</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1858213515-controle-longa-distancia-jfa-verde-com-preto-k600-m-remoto-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Controle Jfa 1200 Metros Para Competição Automotiva Potente</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673101432-controle-jfa-1200-metros-para-competico-automotiva-potente-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Melhor Controle Longa Distancia Radio Automotivo Jfa 1200</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>70.18000000000001</v>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2707736069-melhor-controle-longa-distancia-radio-automotivo-jfa-1200-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K1200 Com Manual 1200metros</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>74.16</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673069484-controle-longa-distancia-jfa-k1200-com-manual-1200metros-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Kit 4 Filtro Blindagem E Anti-ruído Jfa Eletromagnético</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>247.31</v>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2623955582-kit-4-filtro-blindagem-e-anti-ruido-jfa-eletromagnetico-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Controle Remoto Original Jfa 1200m Melhor Alcance Lançamento</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>100.5</v>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2673089824-controle-remoto-original-jfa-1200m-melhor-alcance-lancamento-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5 Filtros Anti-ruido Jfa Rca Cd Dvd Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>302.07</v>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2633334048-5-filtros-anti-ruido-jfa-rca-cd-dvd-eletromagnetico-stereo-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Filtro Anti-ruido Jfa Rca Eletromagnético Stereo - 6unid.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>350.34</v>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2633401660-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-6unid-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Adaptador Conversor De Fio Para Rca Jfa Slim Remoto 10 Unid.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>383.44</v>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1832652174-adaptador-conversor-de-fio-para-rca-jfa-slim-remoto-10-unid-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Controle Automotivo Som Distancia Jfa K1200 Prova D'agua </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3001432393-controle-automotivo-som-distancia-jfa-k1200-prova-dagua-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Automotivo Com 120 Amperes Medidor Cca</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642396558-fonte-carregador-jfa-automotivo-com-120-amperes-medidor-cca-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa 120a Redline Digital Sci Pwm Eae Bivolt</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>694.92</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2642359053-fonte-automotiva-jfa-120a-redline-digital-sci-pwm-eae-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Carregador De Bateria Fonte Jfa Storm 60a Bivolt Automatico</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>487.48</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2641944539-carregador-de-bateria-fonte-jfa-storm-60a-bivolt-automatico-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Kit 8 Filtro Anti-ruido Jfa Rca Eletromagnético Stereo</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>461.48</v>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2633421720-kit-8-filtro-anti-ruido-jfa-rca-eletromagnetico-stereo-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>eletroking distribuidora</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 200 Amperes Jfa Nova Sistema Inteligente</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>871.25</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2646030144-fonte-automotiva-200-amperes-jfa-nova-sistema-inteligente-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D3e7ffb60-aceb-4b28-9a7e-61aa5939c29b</t>
         </is>
       </c>
     </row>
